--- a/biology/Zoologie/Cryptomys/Cryptomys.xlsx
+++ b/biology/Zoologie/Cryptomys/Cryptomys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptomys est un genre de mammifères qui appartient à l'ordre des Rongeurs. Ce genre rassemble une partie des rats-taupes.
 Il a été décrit pour la première fois en 1864 par le zoologiste britannique John Edward Gray (1800-1875).
@@ -512,21 +524,23 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (13 déc. 2012)[1] et ITIS      (13 déc. 2012)[2] :
-Cryptomys amatus (Wroughton, 1907) - Petit Rat-taupe solitaire [3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (13 déc. 2012) et ITIS      (13 déc. 2012) :
+Cryptomys amatus (Wroughton, 1907) - Petit Rat-taupe solitaire 
 Cryptomys anselli Burda, Zima, Scharff, Macholán &amp; Kawalika, 1999
 Cryptomys bocagei (de Winton, 1897)
-Cryptomys damarensis (Ogilby, 1838)  - Rat-taupe de Damaraland[4] ou Rat-taupe de Damara[4]
+Cryptomys damarensis (Ogilby, 1838)  - Rat-taupe de Damaraland ou Rat-taupe de Damara
 Cryptomys darlingi (Thomas, 1895)
 Cryptomys foxi (Thomas, 1911)
-Cryptomys hottentotus (Lesson, 1826) - Rat-taupe africain[4] ou  Rat-taupe hottentot[5]
+Cryptomys hottentotus (Lesson, 1826) - Rat-taupe africain ou  Rat-taupe hottentot
 Cryptomys kafuensis Burda, Zima, Scharff, Macholán &amp; Kawalika, 1999
-Cryptomys mechowi (Peters, 1881) - Rat-taupe géant [6] ou Petit Rat-taupe solitaire [3]
-Cryptomys ochraceocinereus (Heuglin, 1864) - Petit Rat-taupe social[3]
+Cryptomys mechowi (Peters, 1881) - Rat-taupe géant  ou Petit Rat-taupe solitaire 
+Cryptomys ochraceocinereus (Heuglin, 1864) - Petit Rat-taupe social
 Cryptomys zechi (Matschie, 1900)
-Selon Catalogue of Life                                   (13 déc. 2012)[7] :
+Selon Catalogue of Life                                   (13 déc. 2012) :
 Cryptomys bocagei
 Cryptomys damarensis
 Cryptomys foxi
@@ -534,11 +548,11 @@
 Cryptomys mechowi
 Cryptomys ochraceocinereus
 Cryptomys zechi
-Selon NCBI  (13 déc. 2012)[8] :
+Selon NCBI  (13 déc. 2012) :
 Cryptomys anomalus
 Cryptomys holosericeus
 Cryptomys hottentotus
-Selon Paleobiology Database                   (13 déc. 2012)[9] :
+Selon Paleobiology Database                   (13 déc. 2012) :
 Cryptomys damarensis
 Cryptomys hottentotus</t>
         </is>
